--- a/Readme/envident_REST_API.xlsx
+++ b/Readme/envident_REST_API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Test API</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Test with angular app</t>
-  </si>
-  <si>
     <t>https://demo-springboot-nalsolution.herokuapp.com/api/v1/works/insert</t>
   </si>
   <si>
@@ -64,12 +61,18 @@
   <si>
     <t>Edit</t>
   </si>
+  <si>
+    <t>I'm testing at localhost but you can test at address https://demo-angularapp-nalsolution.herokuapp.com</t>
+  </si>
+  <si>
+    <t>Test with angular app(https://demo-angularapp-nalsolution.herokuapp.com)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +98,13 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -147,6 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -475,13 +486,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>150628</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>179786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -499,7 +510,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="55016400"/>
+          <a:off x="0" y="55549800"/>
           <a:ext cx="14171428" cy="9514286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -513,13 +524,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>112686</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>47048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -537,7 +548,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="64922400"/>
+          <a:off x="0" y="65532000"/>
           <a:ext cx="12914286" cy="4619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -551,13 +562,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>365</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>360152</xdr:colOff>
-      <xdr:row>414</xdr:row>
+      <xdr:row>415</xdr:row>
       <xdr:rowOff>17857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -589,13 +600,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>417</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>331276</xdr:colOff>
-      <xdr:row>439</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>104214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -627,13 +638,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>440</xdr:row>
+      <xdr:row>441</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>274438</xdr:colOff>
-      <xdr:row>489</xdr:row>
+      <xdr:row>490</xdr:row>
       <xdr:rowOff>122643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -665,13 +676,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>492</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>273981</xdr:colOff>
-      <xdr:row>540</xdr:row>
+      <xdr:row>541</xdr:row>
       <xdr:rowOff>170262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -703,13 +714,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -763,13 +774,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>362</xdr:row>
+      <xdr:row>363</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -823,13 +834,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -876,13 +887,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>380</xdr:row>
+      <xdr:row>381</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -936,13 +947,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>233364</xdr:colOff>
-      <xdr:row>362</xdr:row>
+      <xdr:row>363</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>547689</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -989,13 +1000,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>424</xdr:row>
+      <xdr:row>425</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>436</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1049,13 +1060,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>387</xdr:row>
+      <xdr:row>388</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1109,13 +1120,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>424</xdr:row>
+      <xdr:row>425</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1164,13 +1175,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>464</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>465</xdr:row>
+      <xdr:row>466</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1224,13 +1235,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>436</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>464</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1279,13 +1290,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>469</xdr:row>
+      <xdr:row>470</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>472</xdr:row>
+      <xdr:row>473</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1339,13 +1350,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>472</xdr:row>
+      <xdr:row>473</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>520</xdr:row>
+      <xdr:row>521</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1394,13 +1405,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>520</xdr:row>
+      <xdr:row>521</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>521</xdr:row>
+      <xdr:row>522</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1716,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1816,7 +1827,7 @@
     </row>
     <row r="222" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:1" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -1826,12 +1837,12 @@
     </row>
     <row r="258" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B286" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -1839,18 +1850,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A339" s="6" t="s">
+    <row r="288" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A288" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A340" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:1" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A416" s="6" t="s">
-        <v>12</v>
+    <row r="417" spans="1:1" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A417" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A491" s="6" t="s">
+    <row r="492" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A492" s="6" t="s">
         <v>8</v>
       </c>
     </row>
